--- a/biology/Botanique/Hakea/Hakea.xlsx
+++ b/biology/Botanique/Hakea/Hakea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hakea est un genre de 149 espèces de buissons ou arbustes de la famille des Proteaceae, originaire d'Australie. On les trouve dans tout le pays mais c'est dans le sud-ouest de l'Australie occidentale que l'on en trouve le plus grand nombre d'espèces. Ils peuvent atteindre 1 à 6 mètres de haut et ont des feuilles disposées en spirale mesurant de 2 à 20 centimètres de long, simples ou composées, quelquefois comme chez Hakea drupacea avoir des folioles en aiguilles comme chez les Juncaceae. Les fleurs sont rassemblées en gros bouquets de formes variables, en boule ou en cylindre, de 3 à 10 centimètres de long avec de nombreuses petites fleurs rouges, jaunes, roses, pourpres, bleu pâle ou blanches
 Les Hakea doivent leur nom au baron Christian Ludwig von Hake, un botaniste allemand du XVIIIe siècle.
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hakea sont très proches des genres Grevillea et Finschia, tous deux membres aussi de la sous-famille des Grevilleoideae dans la famille des Proteaceae. Beaucoup d'espèces ont le même type d'inflorescence mais les Hakea s'en distinguent par leurs capsules ligneuses.
 </t>
@@ -543,7 +557,9 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hakea sont des plantes ornementales fréquentes dans les jardins australiens, quoique moins que les Grevillea et les Banksia. On a développé plusieurs hybrides et cultivars. Ils poussent facilement dans les sols légers et bien drainés, s'ils sont suffisamment arrosés
 Quelques espèces des régions ensoleillées de l'ouest comme Hakea multilineata, Hakea francisiana et Hakea bucculenta doivent être greffées sur des espèces comme Hakea salicifolia (en) pour pousser dans les climats plus humides, car elles sont sensibles à Phytophthora cinnamomi.
